--- a/Open_topology/WECC/run_times.xlsx
+++ b/Open_topology/WECC/run_times.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="basic" sheetId="1" r:id="rId1"/>
+    <sheet name="trans_exp" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="10">
   <si>
     <t>Nodes</t>
   </si>
@@ -38,6 +39,18 @@
   <si>
     <t>Transmission = 100 (1/x)</t>
   </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Trans</t>
+  </si>
+  <si>
+    <t>SIMPLE</t>
+  </si>
+  <si>
+    <t>COAL</t>
+  </si>
 </sst>
 </file>
 
@@ -52,12 +65,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -72,7 +91,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -82,6 +101,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -104,6 +139,3731 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>basic!$B$9:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.4772222222222222</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7561111111111112</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.6005555555555553</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2213888888888889</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.2927777777777774</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8CEB-4BC8-BDBE-3B00C00E6B3A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>basic!$B$10:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.6958333333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0980555555555553</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6361111111111111</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.691111111111111</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.511666666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8CEB-4BC8-BDBE-3B00C00E6B3A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>basic!$B$11:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.0386111111111109</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5788888888888888</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.9233333333333338</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4413888888888891</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.104444444444443</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8CEB-4BC8-BDBE-3B00C00E6B3A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>basic!$B$12:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.4777777777777779</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1324999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.355277777777779</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4297222222222223</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.308888888888887</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8CEB-4BC8-BDBE-3B00C00E6B3A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>basic!$B$13:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.5652777777777778</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2177777777777781</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40.062222222222225</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2086111111111109</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>57.387777777777778</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8CEB-4BC8-BDBE-3B00C00E6B3A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="419436904"/>
+        <c:axId val="419437888"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="419436904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="419437888"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="419437888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="419436904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>LP</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>25%</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>trans_exp!$A$16:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>trans_exp!$B$16:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.79166666666666663</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3283333333333334</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7127777777777777</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6297222222222221</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5888888888888886</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.180833333333334</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.498055555555556</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0505555555555555</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.737500000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.986666666666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3DBF-433D-8935-8DC2DB3CDB96}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>50%</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>trans_exp!$A$16:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>trans_exp!$C$16:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.76361111111111113</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.503611111111111</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2622222222222224</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2452777777777779</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3244444444444445</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.210555555555555</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.274444444444445</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.4163888888888891</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.758611111111112</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.757222222222222</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3DBF-433D-8935-8DC2DB3CDB96}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>75%</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>trans_exp!$A$16:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>trans_exp!$D$16:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.0627777777777778</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0766666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3469444444444445</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.855</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0116666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.855833333333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.718611111111111</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.4233333333333338</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.329722222222221</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.268055555555556</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3DBF-433D-8935-8DC2DB3CDB96}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>100%</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>trans_exp!$A$16:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>trans_exp!$E$16:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.0363888888888888</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3677777777777778</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6694444444444445</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0541666666666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3433333333333333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.6166666666666671</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.426388888888889</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.8602777777777781</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.4824999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.578333333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3DBF-433D-8935-8DC2DB3CDB96}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="419089144"/>
+        <c:axId val="419087504"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="419089144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="419087504"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="419087504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="90"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Hours</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="419089144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>MILP (Coal only)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>25%</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="wdUpDiag">
+                <a:fgClr>
+                  <a:schemeClr val="accent1"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-8EFB-49D8-8B31-C9BDF79555AF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="wdUpDiag">
+                <a:fgClr>
+                  <a:schemeClr val="accent1"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-8EFB-49D8-8B31-C9BDF79555AF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="wdUpDiag">
+                <a:fgClr>
+                  <a:schemeClr val="accent1"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-8EFB-49D8-8B31-C9BDF79555AF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:numRef>
+              <c:f>trans_exp!$A$16:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>trans_exp!$I$16:$I$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.2158333333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.727777777777778</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.126111111111111</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.991666666666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.493611111111111</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.503888888888888</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>71.034444444444446</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>83.335277777777776</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>83.333611111111111</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>83.336666666666673</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8EFB-49D8-8B31-C9BDF79555AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>50%</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>trans_exp!$A$16:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>trans_exp!$J$16:$J$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.9994444444444444</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.356111111111112</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.7530555555555551</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.104722222222222</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.512777777777778</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.905277777777776</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37.31583333333333</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>57.164999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>69.230555555555554</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>77.667222222222222</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8EFB-49D8-8B31-C9BDF79555AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>75%</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>trans_exp!$A$16:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>trans_exp!$K$16:$K$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.5397222222222222</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.446944444444444</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.073055555555555</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.8341666666666665</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.342777777777778</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.500277777777779</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31.697777777777777</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51.821944444444448</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60.030555555555559</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>68.214722222222221</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8EFB-49D8-8B31-C9BDF79555AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>100%</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>trans_exp!$A$16:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>trans_exp!$L$16:$L$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.6208333333333336</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.8175000000000008</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.1727777777777781</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.4891666666666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.9280555555555559</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.513055555555557</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29.638888888888889</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47.843611111111109</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>56.648333333333333</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>71.164722222222224</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8EFB-49D8-8B31-C9BDF79555AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="419093736"/>
+        <c:axId val="419094064"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="419093736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="419094064"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="419094064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Hours</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="419093736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>517525</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -369,10 +4129,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -387,16 +4147,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="4" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -440,7 +4200,9 @@
       <c r="F3" s="2">
         <v>26254</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
@@ -461,7 +4223,9 @@
       <c r="F4" s="3">
         <v>95442</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
@@ -482,7 +4246,9 @@
       <c r="F5" s="3">
         <v>86776</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
@@ -503,7 +4269,9 @@
       <c r="F6" s="3">
         <v>101912</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="G6" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
@@ -521,8 +4289,157 @@
       <c r="E7" s="2">
         <v>15151</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="F7" s="5">
+        <v>206596</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
+        <v>50</v>
+      </c>
+      <c r="B9" s="1">
+        <f>B3/3600</f>
+        <v>1.4772222222222222</v>
+      </c>
+      <c r="C9" s="4">
+        <f t="shared" ref="C9:F9" si="0">C3/3600</f>
+        <v>1.7561111111111112</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>6.6005555555555553</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="0"/>
+        <v>1.2213888888888889</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="0"/>
+        <v>7.2927777777777774</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
+        <v>75</v>
+      </c>
+      <c r="B10" s="4">
+        <f t="shared" ref="B10:F10" si="1">B4/3600</f>
+        <v>1.6958333333333333</v>
+      </c>
+      <c r="C10" s="4">
+        <f t="shared" si="1"/>
+        <v>2.0980555555555553</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="1"/>
+        <v>8.6361111111111111</v>
+      </c>
+      <c r="E10" s="4">
+        <f t="shared" si="1"/>
+        <v>1.691111111111111</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="1"/>
+        <v>26.511666666666667</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="4">
+        <v>100</v>
+      </c>
+      <c r="B11" s="4">
+        <f t="shared" ref="B11:F11" si="2">B5/3600</f>
+        <v>2.0386111111111109</v>
+      </c>
+      <c r="C11" s="4">
+        <f t="shared" si="2"/>
+        <v>2.5788888888888888</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="2"/>
+        <v>9.9233333333333338</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="shared" si="2"/>
+        <v>2.4413888888888891</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" si="2"/>
+        <v>24.104444444444443</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="4">
+        <v>125</v>
+      </c>
+      <c r="B12" s="4">
+        <f t="shared" ref="B12:F12" si="3">B6/3600</f>
+        <v>2.4777777777777779</v>
+      </c>
+      <c r="C12" s="4">
+        <f t="shared" si="3"/>
+        <v>3.1324999999999998</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="3"/>
+        <v>27.355277777777779</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" si="3"/>
+        <v>3.4297222222222223</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" si="3"/>
+        <v>28.308888888888887</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="4">
+        <v>150</v>
+      </c>
+      <c r="B13" s="4">
+        <f t="shared" ref="B13:F13" si="4">B7/3600</f>
+        <v>3.5652777777777778</v>
+      </c>
+      <c r="C13" s="4">
+        <f t="shared" si="4"/>
+        <v>4.2177777777777781</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="4"/>
+        <v>40.062222222222225</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="4"/>
+        <v>4.2086111111111109</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="4"/>
+        <v>57.387777777777778</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -530,5 +4447,852 @@
     <mergeCell ref="E1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="H1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="C2" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="D2" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="E2" s="9">
+        <v>1</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="J2" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="K2" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="L2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="6">
+        <v>50</v>
+      </c>
+      <c r="B3" s="6">
+        <v>2850</v>
+      </c>
+      <c r="C3" s="6">
+        <v>2749</v>
+      </c>
+      <c r="D3" s="6">
+        <v>3826</v>
+      </c>
+      <c r="E3" s="6">
+        <v>3731</v>
+      </c>
+      <c r="H3" s="6">
+        <v>50</v>
+      </c>
+      <c r="I3" s="6">
+        <v>18777</v>
+      </c>
+      <c r="J3" s="6">
+        <v>21598</v>
+      </c>
+      <c r="K3" s="6">
+        <v>19943</v>
+      </c>
+      <c r="L3" s="6">
+        <v>16635</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="6">
+        <v>75</v>
+      </c>
+      <c r="B4" s="6">
+        <v>4782</v>
+      </c>
+      <c r="C4" s="6">
+        <v>5413</v>
+      </c>
+      <c r="D4" s="6">
+        <v>3876</v>
+      </c>
+      <c r="E4" s="6">
+        <v>4924</v>
+      </c>
+      <c r="H4" s="6">
+        <v>75</v>
+      </c>
+      <c r="I4" s="6">
+        <v>81820</v>
+      </c>
+      <c r="J4" s="6">
+        <v>66082</v>
+      </c>
+      <c r="K4" s="6">
+        <v>48409</v>
+      </c>
+      <c r="L4" s="6">
+        <v>31743</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
+        <v>100</v>
+      </c>
+      <c r="B5" s="6">
+        <v>13366</v>
+      </c>
+      <c r="C5" s="6">
+        <v>11744</v>
+      </c>
+      <c r="D5" s="6">
+        <v>8449</v>
+      </c>
+      <c r="E5" s="6">
+        <v>6010</v>
+      </c>
+      <c r="H5" s="6">
+        <v>100</v>
+      </c>
+      <c r="I5" s="6">
+        <v>36454</v>
+      </c>
+      <c r="J5" s="6">
+        <v>24311</v>
+      </c>
+      <c r="K5" s="6">
+        <v>39863</v>
+      </c>
+      <c r="L5" s="6">
+        <v>25822</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
+        <v>125</v>
+      </c>
+      <c r="B6" s="6">
+        <v>9467</v>
+      </c>
+      <c r="C6" s="6">
+        <v>15283</v>
+      </c>
+      <c r="D6" s="6">
+        <v>13878</v>
+      </c>
+      <c r="E6" s="6">
+        <v>7395</v>
+      </c>
+      <c r="H6" s="6">
+        <v>125</v>
+      </c>
+      <c r="I6" s="6">
+        <v>43170</v>
+      </c>
+      <c r="J6" s="6">
+        <v>57977</v>
+      </c>
+      <c r="K6" s="6">
+        <v>31803</v>
+      </c>
+      <c r="L6" s="6">
+        <v>26961</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
+        <v>150</v>
+      </c>
+      <c r="B7" s="6">
+        <v>20120</v>
+      </c>
+      <c r="C7" s="6">
+        <v>8368</v>
+      </c>
+      <c r="D7" s="6">
+        <v>18042</v>
+      </c>
+      <c r="E7" s="6">
+        <v>12036</v>
+      </c>
+      <c r="H7" s="6">
+        <v>150</v>
+      </c>
+      <c r="I7" s="6">
+        <v>73777</v>
+      </c>
+      <c r="J7" s="6">
+        <v>41446</v>
+      </c>
+      <c r="K7" s="6">
+        <v>44434</v>
+      </c>
+      <c r="L7" s="6">
+        <v>35741</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="6">
+        <v>200</v>
+      </c>
+      <c r="B8" s="6">
+        <v>40251</v>
+      </c>
+      <c r="C8" s="6">
+        <v>36758</v>
+      </c>
+      <c r="D8" s="6">
+        <v>35481</v>
+      </c>
+      <c r="E8" s="6">
+        <v>34620</v>
+      </c>
+      <c r="H8" s="6">
+        <v>200</v>
+      </c>
+      <c r="I8" s="6">
+        <v>109814</v>
+      </c>
+      <c r="J8" s="6">
+        <v>71659</v>
+      </c>
+      <c r="K8" s="6">
+        <v>73801</v>
+      </c>
+      <c r="L8" s="6">
+        <v>70247</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="6">
+        <v>225</v>
+      </c>
+      <c r="B9" s="6">
+        <v>48593</v>
+      </c>
+      <c r="C9" s="6">
+        <v>44188</v>
+      </c>
+      <c r="D9" s="6">
+        <v>42187</v>
+      </c>
+      <c r="E9" s="6">
+        <v>41135</v>
+      </c>
+      <c r="H9" s="6">
+        <v>225</v>
+      </c>
+      <c r="I9" s="6">
+        <v>255724</v>
+      </c>
+      <c r="J9" s="6">
+        <v>134337</v>
+      </c>
+      <c r="K9" s="6">
+        <v>114112</v>
+      </c>
+      <c r="L9" s="6">
+        <v>106700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="6">
+        <v>250</v>
+      </c>
+      <c r="B10" s="6">
+        <v>25382</v>
+      </c>
+      <c r="C10" s="6">
+        <v>30299</v>
+      </c>
+      <c r="D10" s="6">
+        <v>30324</v>
+      </c>
+      <c r="E10" s="6">
+        <v>28297</v>
+      </c>
+      <c r="H10" s="6">
+        <v>250</v>
+      </c>
+      <c r="I10" s="6">
+        <v>300007</v>
+      </c>
+      <c r="J10" s="6">
+        <v>205794</v>
+      </c>
+      <c r="K10" s="6">
+        <v>186559</v>
+      </c>
+      <c r="L10" s="6">
+        <v>172237</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="6">
+        <v>275</v>
+      </c>
+      <c r="B11" s="6">
+        <v>42255</v>
+      </c>
+      <c r="C11" s="6">
+        <v>38731</v>
+      </c>
+      <c r="D11" s="6">
+        <v>37187</v>
+      </c>
+      <c r="E11" s="6">
+        <v>34137</v>
+      </c>
+      <c r="H11" s="6">
+        <v>275</v>
+      </c>
+      <c r="I11" s="6">
+        <v>300001</v>
+      </c>
+      <c r="J11" s="6">
+        <v>249230</v>
+      </c>
+      <c r="K11" s="6">
+        <v>216110</v>
+      </c>
+      <c r="L11" s="6">
+        <v>203934</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="6">
+        <v>300</v>
+      </c>
+      <c r="B12" s="6">
+        <v>53952</v>
+      </c>
+      <c r="C12" s="6">
+        <v>49526</v>
+      </c>
+      <c r="D12" s="6">
+        <v>44165</v>
+      </c>
+      <c r="E12" s="6">
+        <v>41682</v>
+      </c>
+      <c r="H12" s="6">
+        <v>300</v>
+      </c>
+      <c r="I12" s="6">
+        <v>300012</v>
+      </c>
+      <c r="J12" s="6">
+        <v>279602</v>
+      </c>
+      <c r="K12" s="6">
+        <v>245573</v>
+      </c>
+      <c r="L12" s="6">
+        <v>256193</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="H14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="C15" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="E15" s="9">
+        <v>1</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="J15" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="K15" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="L15" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" s="6">
+        <v>50</v>
+      </c>
+      <c r="B16" s="6">
+        <f>B3/3600</f>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C16" s="6">
+        <f t="shared" ref="C16:D16" si="0">C3/3600</f>
+        <v>0.76361111111111113</v>
+      </c>
+      <c r="D16" s="6">
+        <f t="shared" si="0"/>
+        <v>1.0627777777777778</v>
+      </c>
+      <c r="E16" s="6">
+        <f>E3/3600</f>
+        <v>1.0363888888888888</v>
+      </c>
+      <c r="H16" s="6">
+        <v>50</v>
+      </c>
+      <c r="I16" s="6">
+        <f>I3/3600</f>
+        <v>5.2158333333333333</v>
+      </c>
+      <c r="J16" s="6">
+        <f t="shared" ref="J16:K16" si="1">J3/3600</f>
+        <v>5.9994444444444444</v>
+      </c>
+      <c r="K16" s="6">
+        <f t="shared" si="1"/>
+        <v>5.5397222222222222</v>
+      </c>
+      <c r="L16" s="6">
+        <f>L3/3600</f>
+        <v>4.6208333333333336</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17" s="6">
+        <v>75</v>
+      </c>
+      <c r="B17" s="6">
+        <f t="shared" ref="B17:E17" si="2">B4/3600</f>
+        <v>1.3283333333333334</v>
+      </c>
+      <c r="C17" s="6">
+        <f t="shared" si="2"/>
+        <v>1.503611111111111</v>
+      </c>
+      <c r="D17" s="6">
+        <f t="shared" si="2"/>
+        <v>1.0766666666666667</v>
+      </c>
+      <c r="E17" s="6">
+        <f t="shared" si="2"/>
+        <v>1.3677777777777778</v>
+      </c>
+      <c r="H17" s="6">
+        <v>75</v>
+      </c>
+      <c r="I17" s="6">
+        <f t="shared" ref="I17:L17" si="3">I4/3600</f>
+        <v>22.727777777777778</v>
+      </c>
+      <c r="J17" s="6">
+        <f t="shared" si="3"/>
+        <v>18.356111111111112</v>
+      </c>
+      <c r="K17" s="6">
+        <f t="shared" si="3"/>
+        <v>13.446944444444444</v>
+      </c>
+      <c r="L17" s="6">
+        <f t="shared" si="3"/>
+        <v>8.8175000000000008</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A18" s="6">
+        <v>100</v>
+      </c>
+      <c r="B18" s="6">
+        <f t="shared" ref="B18:E18" si="4">B5/3600</f>
+        <v>3.7127777777777777</v>
+      </c>
+      <c r="C18" s="6">
+        <f t="shared" si="4"/>
+        <v>3.2622222222222224</v>
+      </c>
+      <c r="D18" s="6">
+        <f t="shared" si="4"/>
+        <v>2.3469444444444445</v>
+      </c>
+      <c r="E18" s="6">
+        <f t="shared" si="4"/>
+        <v>1.6694444444444445</v>
+      </c>
+      <c r="H18" s="6">
+        <v>100</v>
+      </c>
+      <c r="I18" s="6">
+        <f t="shared" ref="I18:L18" si="5">I5/3600</f>
+        <v>10.126111111111111</v>
+      </c>
+      <c r="J18" s="6">
+        <f t="shared" si="5"/>
+        <v>6.7530555555555551</v>
+      </c>
+      <c r="K18" s="6">
+        <f t="shared" si="5"/>
+        <v>11.073055555555555</v>
+      </c>
+      <c r="L18" s="6">
+        <f t="shared" si="5"/>
+        <v>7.1727777777777781</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A19" s="6">
+        <v>125</v>
+      </c>
+      <c r="B19" s="6">
+        <f t="shared" ref="B19:E19" si="6">B6/3600</f>
+        <v>2.6297222222222221</v>
+      </c>
+      <c r="C19" s="6">
+        <f t="shared" si="6"/>
+        <v>4.2452777777777779</v>
+      </c>
+      <c r="D19" s="6">
+        <f t="shared" si="6"/>
+        <v>3.855</v>
+      </c>
+      <c r="E19" s="6">
+        <f t="shared" si="6"/>
+        <v>2.0541666666666667</v>
+      </c>
+      <c r="H19" s="6">
+        <v>125</v>
+      </c>
+      <c r="I19" s="6">
+        <f t="shared" ref="I19:L19" si="7">I6/3600</f>
+        <v>11.991666666666667</v>
+      </c>
+      <c r="J19" s="6">
+        <f t="shared" si="7"/>
+        <v>16.104722222222222</v>
+      </c>
+      <c r="K19" s="6">
+        <f t="shared" si="7"/>
+        <v>8.8341666666666665</v>
+      </c>
+      <c r="L19" s="6">
+        <f t="shared" si="7"/>
+        <v>7.4891666666666667</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A20" s="6">
+        <v>150</v>
+      </c>
+      <c r="B20" s="6">
+        <f t="shared" ref="B20:E20" si="8">B7/3600</f>
+        <v>5.5888888888888886</v>
+      </c>
+      <c r="C20" s="6">
+        <f t="shared" si="8"/>
+        <v>2.3244444444444445</v>
+      </c>
+      <c r="D20" s="6">
+        <f t="shared" si="8"/>
+        <v>5.0116666666666667</v>
+      </c>
+      <c r="E20" s="6">
+        <f t="shared" si="8"/>
+        <v>3.3433333333333333</v>
+      </c>
+      <c r="H20" s="6">
+        <v>150</v>
+      </c>
+      <c r="I20" s="6">
+        <f t="shared" ref="I20:L20" si="9">I7/3600</f>
+        <v>20.493611111111111</v>
+      </c>
+      <c r="J20" s="6">
+        <f t="shared" si="9"/>
+        <v>11.512777777777778</v>
+      </c>
+      <c r="K20" s="6">
+        <f t="shared" si="9"/>
+        <v>12.342777777777778</v>
+      </c>
+      <c r="L20" s="6">
+        <f t="shared" si="9"/>
+        <v>9.9280555555555559</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21" s="6">
+        <v>200</v>
+      </c>
+      <c r="B21" s="6">
+        <f t="shared" ref="B21:E21" si="10">B8/3600</f>
+        <v>11.180833333333334</v>
+      </c>
+      <c r="C21" s="6">
+        <f t="shared" si="10"/>
+        <v>10.210555555555555</v>
+      </c>
+      <c r="D21" s="6">
+        <f t="shared" si="10"/>
+        <v>9.855833333333333</v>
+      </c>
+      <c r="E21" s="6">
+        <f t="shared" si="10"/>
+        <v>9.6166666666666671</v>
+      </c>
+      <c r="H21" s="6">
+        <v>200</v>
+      </c>
+      <c r="I21" s="6">
+        <f t="shared" ref="I21:L21" si="11">I8/3600</f>
+        <v>30.503888888888888</v>
+      </c>
+      <c r="J21" s="6">
+        <f t="shared" si="11"/>
+        <v>19.905277777777776</v>
+      </c>
+      <c r="K21" s="6">
+        <f t="shared" si="11"/>
+        <v>20.500277777777779</v>
+      </c>
+      <c r="L21" s="6">
+        <f t="shared" si="11"/>
+        <v>19.513055555555557</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A22" s="6">
+        <v>225</v>
+      </c>
+      <c r="B22" s="6">
+        <f t="shared" ref="B22:E22" si="12">B9/3600</f>
+        <v>13.498055555555556</v>
+      </c>
+      <c r="C22" s="6">
+        <f t="shared" si="12"/>
+        <v>12.274444444444445</v>
+      </c>
+      <c r="D22" s="6">
+        <f t="shared" si="12"/>
+        <v>11.718611111111111</v>
+      </c>
+      <c r="E22" s="6">
+        <f t="shared" si="12"/>
+        <v>11.426388888888889</v>
+      </c>
+      <c r="H22" s="6">
+        <v>225</v>
+      </c>
+      <c r="I22" s="6">
+        <f t="shared" ref="I22:L22" si="13">I9/3600</f>
+        <v>71.034444444444446</v>
+      </c>
+      <c r="J22" s="6">
+        <f t="shared" si="13"/>
+        <v>37.31583333333333</v>
+      </c>
+      <c r="K22" s="6">
+        <f t="shared" si="13"/>
+        <v>31.697777777777777</v>
+      </c>
+      <c r="L22" s="6">
+        <f t="shared" si="13"/>
+        <v>29.638888888888889</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A23" s="6">
+        <v>250</v>
+      </c>
+      <c r="B23" s="6">
+        <f t="shared" ref="B23:E23" si="14">B10/3600</f>
+        <v>7.0505555555555555</v>
+      </c>
+      <c r="C23" s="6">
+        <f t="shared" si="14"/>
+        <v>8.4163888888888891</v>
+      </c>
+      <c r="D23" s="6">
+        <f t="shared" si="14"/>
+        <v>8.4233333333333338</v>
+      </c>
+      <c r="E23" s="6">
+        <f t="shared" si="14"/>
+        <v>7.8602777777777781</v>
+      </c>
+      <c r="H23" s="6">
+        <v>250</v>
+      </c>
+      <c r="I23" s="6">
+        <f t="shared" ref="I23:L23" si="15">I10/3600</f>
+        <v>83.335277777777776</v>
+      </c>
+      <c r="J23" s="6">
+        <f t="shared" si="15"/>
+        <v>57.164999999999999</v>
+      </c>
+      <c r="K23" s="6">
+        <f t="shared" si="15"/>
+        <v>51.821944444444448</v>
+      </c>
+      <c r="L23" s="6">
+        <f t="shared" si="15"/>
+        <v>47.843611111111109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A24" s="6">
+        <v>275</v>
+      </c>
+      <c r="B24" s="6">
+        <f t="shared" ref="B24:E24" si="16">B11/3600</f>
+        <v>11.737500000000001</v>
+      </c>
+      <c r="C24" s="6">
+        <f t="shared" si="16"/>
+        <v>10.758611111111112</v>
+      </c>
+      <c r="D24" s="6">
+        <f t="shared" si="16"/>
+        <v>10.329722222222221</v>
+      </c>
+      <c r="E24" s="6">
+        <f t="shared" si="16"/>
+        <v>9.4824999999999999</v>
+      </c>
+      <c r="H24" s="6">
+        <v>275</v>
+      </c>
+      <c r="I24" s="6">
+        <f t="shared" ref="I24:L24" si="17">I11/3600</f>
+        <v>83.333611111111111</v>
+      </c>
+      <c r="J24" s="6">
+        <f t="shared" si="17"/>
+        <v>69.230555555555554</v>
+      </c>
+      <c r="K24" s="6">
+        <f t="shared" si="17"/>
+        <v>60.030555555555559</v>
+      </c>
+      <c r="L24" s="6">
+        <f t="shared" si="17"/>
+        <v>56.648333333333333</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A25" s="6">
+        <v>300</v>
+      </c>
+      <c r="B25" s="6">
+        <f t="shared" ref="B25:E25" si="18">B12/3600</f>
+        <v>14.986666666666666</v>
+      </c>
+      <c r="C25" s="6">
+        <f t="shared" si="18"/>
+        <v>13.757222222222222</v>
+      </c>
+      <c r="D25" s="6">
+        <f t="shared" si="18"/>
+        <v>12.268055555555556</v>
+      </c>
+      <c r="E25" s="6">
+        <f t="shared" si="18"/>
+        <v>11.578333333333333</v>
+      </c>
+      <c r="H25" s="6">
+        <v>300</v>
+      </c>
+      <c r="I25" s="6">
+        <f t="shared" ref="I25:L25" si="19">I12/3600</f>
+        <v>83.336666666666673</v>
+      </c>
+      <c r="J25" s="6">
+        <f t="shared" si="19"/>
+        <v>77.667222222222222</v>
+      </c>
+      <c r="K25" s="6">
+        <f t="shared" si="19"/>
+        <v>68.214722222222221</v>
+      </c>
+      <c r="L25" s="6">
+        <f t="shared" si="19"/>
+        <v>71.164722222222224</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="I14:L14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>